--- a/WORD/21_7.xlsx
+++ b/WORD/21_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\N2_2025_12\WORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251A2206-F4C3-47CD-8717-A0BBD4791451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C97B1-9319-4518-85E1-5FDBF2BB1002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8235" yWindow="6150" windowWidth="18990" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="246">
   <si>
     <t>Fre</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -866,6 +866,154 @@
   </si>
   <si>
     <t>庇护，袒护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倣う</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿；效仿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならう</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふっと</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然；忽然</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼうっと</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆；模糊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばっと</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然；猛然；一下子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展開</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんかい</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>きげん</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>機嫌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情；情绪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限；截止日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>経つ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>たつ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过；流逝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>進出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんしゅつ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入；打入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妥当</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>だとう</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适当；合适；妥善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快晴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいせい</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天；晴朗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇う</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>かばう</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护；袒护；保护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叱る</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかる</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责备；训斥；斥责</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保護</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほご</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1212,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,6 +1398,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1258,6 +1409,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1266,6 +1420,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1274,6 +1431,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1282,6 +1442,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1290,6 +1453,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1298,6 +1464,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1309,6 +1478,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1320,6 +1492,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1328,6 +1503,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1336,6 +1514,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1344,6 +1525,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1352,6 +1536,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1360,6 +1547,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1368,6 +1558,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1568,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1579,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1593,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1402,7 +1604,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1618,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1424,7 +1632,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -1432,7 +1643,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1654,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1665,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1459,7 +1679,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1467,7 +1690,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1475,7 +1701,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1483,7 +1712,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1723,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1734,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
@@ -1507,7 +1745,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
@@ -1515,7 +1756,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1523,7 +1767,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>75</v>
       </c>
@@ -1531,7 +1778,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
@@ -1542,7 +1792,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>0</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
@@ -1550,7 +1803,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
@@ -1561,7 +1817,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>0</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
@@ -1569,7 +1828,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>0</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>87</v>
       </c>
@@ -1577,7 +1839,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>0</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>89</v>
       </c>
@@ -1585,7 +1850,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>0</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>91</v>
       </c>
@@ -1593,7 +1861,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
@@ -1604,7 +1875,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>0</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1615,7 +1889,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>0</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>99</v>
       </c>
@@ -1626,7 +1903,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>0</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
@@ -1637,7 +1917,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>0</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>105</v>
       </c>
@@ -1648,7 +1931,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>0</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>108</v>
       </c>
@@ -1659,7 +1945,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>0</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>111</v>
       </c>
@@ -1670,7 +1959,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>0</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>114</v>
       </c>
@@ -1678,7 +1970,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>0</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -1686,7 +1981,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>0</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>118</v>
       </c>
@@ -1694,7 +1992,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>0</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>120</v>
       </c>
@@ -1702,7 +2003,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>0</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>122</v>
       </c>
@@ -1713,7 +2017,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>0</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>125</v>
       </c>
@@ -1724,7 +2031,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>0</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>128</v>
       </c>
@@ -1735,7 +2045,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>0</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>131</v>
       </c>
@@ -1746,7 +2059,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>0</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>134</v>
       </c>
@@ -1757,7 +2073,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>0</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>137</v>
       </c>
@@ -1765,7 +2084,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>0</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>139</v>
       </c>
@@ -1773,7 +2095,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>0</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>141</v>
       </c>
@@ -1784,7 +2109,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>0</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>144</v>
       </c>
@@ -1792,7 +2120,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>0</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>146</v>
       </c>
@@ -1803,7 +2134,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>0</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1814,7 +2148,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>0</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>152</v>
       </c>
@@ -1822,7 +2159,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>0</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -1830,7 +2170,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>0</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>156</v>
       </c>
@@ -1838,7 +2181,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>0</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>158</v>
       </c>
@@ -1846,7 +2192,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>0</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>160</v>
       </c>
@@ -1854,7 +2203,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>0</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>162</v>
       </c>
@@ -1862,7 +2214,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>0</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>164</v>
       </c>
@@ -1873,7 +2228,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>167</v>
       </c>
@@ -1884,7 +2242,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>0</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>170</v>
       </c>
@@ -1892,7 +2253,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>0</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>172</v>
       </c>
@@ -1903,7 +2267,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>0</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>175</v>
       </c>
@@ -1911,7 +2278,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>0</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>177</v>
       </c>
@@ -1922,7 +2292,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>0</v>
+      </c>
       <c r="B76" s="3" t="s">
         <v>180</v>
       </c>
@@ -1930,7 +2303,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>0</v>
+      </c>
       <c r="B77" s="3" t="s">
         <v>182</v>
       </c>
@@ -1938,7 +2314,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>0</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>184</v>
       </c>
@@ -1946,7 +2325,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>0</v>
+      </c>
       <c r="B79" s="3" t="s">
         <v>186</v>
       </c>
@@ -1954,7 +2336,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>0</v>
+      </c>
       <c r="B80" s="3" t="s">
         <v>188</v>
       </c>
@@ -1965,7 +2350,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>0</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>191</v>
       </c>
@@ -1973,7 +2361,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>0</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>193</v>
       </c>
@@ -1981,7 +2372,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>0</v>
+      </c>
       <c r="B83" s="3" t="s">
         <v>195</v>
       </c>
@@ -1989,7 +2383,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>0</v>
+      </c>
       <c r="B84" s="3" t="s">
         <v>197</v>
       </c>
@@ -1997,7 +2394,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>0</v>
+      </c>
       <c r="B85" s="3" t="s">
         <v>199</v>
       </c>
@@ -2005,7 +2405,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>0</v>
+      </c>
       <c r="B86" s="3" t="s">
         <v>201</v>
       </c>
@@ -2016,7 +2419,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>0</v>
+      </c>
       <c r="B87" s="3" t="s">
         <v>204</v>
       </c>
@@ -2027,18 +2433,213 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>0</v>
+      </c>
       <c r="B88" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>0</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>0</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>0</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>0</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>0</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>0</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>0</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>0</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>0</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>0</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>0</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>0</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>0</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
